--- a/test.xlsx
+++ b/test.xlsx
@@ -140,7 +140,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,11 +158,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>23</v>
       </c>
     </row>
